--- a/excel/import_absen.xlsx
+++ b/excel/import_absen.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t xml:space="preserve">no</t>
   </si>
@@ -40,28 +40,31 @@
     <t xml:space="preserve">keterangan</t>
   </si>
   <si>
-    <t xml:space="preserve">01782084500000007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilham Adi Setiawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01782084500000008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Firlana Purti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01782084500000009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dani Sumantri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01782084500000010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lofita Soluna</t>
+    <t xml:space="preserve">01782084500000020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHERLIAN TRIANDINI P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OnTime//Pulang Tertib</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01782084500000021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NABELA SYAFA FEBRIYANTI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01782084500000022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHELSA ELFIYYAH DAMAYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01782084500000023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TITANIA AYU NUGROHO</t>
   </si>
 </sst>
 </file>
@@ -72,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="H:MM:SS"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -99,6 +102,12 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -144,7 +153,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -154,6 +163,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -176,8 +193,8 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -223,22 +240,28 @@
       <c r="E2" s="2" t="n">
         <v>0.848171296296296</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="2" t="n">
         <v>0.728240740740741</v>
       </c>
       <c r="E3" s="2" t="n">
         <v>0.850335648148148</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -246,33 +269,39 @@
         <v>3</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="2" t="n">
         <v>1.72893518518519</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>1.85034722222222</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="n">
         <v>2.72962962962963</v>
       </c>
       <c r="E5" s="2" t="n">
         <v>2.85037037037037</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
